--- a/WeWorkAssignment.xlsx
+++ b/WeWorkAssignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08780DA-1D31-45E7-969A-23F7D89EF3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20B47F-AA41-44E8-B45A-EFEFE09EC390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9DA2AF2B-6007-4E66-BBB4-56F65E6C9A89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DA2AF2B-6007-4E66-BBB4-56F65E6C9A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -1199,9 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B7FAAF-F79E-46EE-BB46-DBF4AF433273}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -1683,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C5E22C-6DA1-4E84-9639-F2207F465A7F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/WeWorkAssignment.xlsx
+++ b/WeWorkAssignment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20B47F-AA41-44E8-B45A-EFEFE09EC390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47A4AE-13CC-48F7-B6E5-B45D943BB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DA2AF2B-6007-4E66-BBB4-56F65E6C9A89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9DA2AF2B-6007-4E66-BBB4-56F65E6C9A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Automation Approach" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Scenarios'!$A$7:$G$36</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
   <si>
     <t>S.No</t>
     <phoneticPr fontId="1"/>
@@ -668,12 +669,324 @@
   <si>
     <t>TC_18</t>
   </si>
+  <si>
+    <t>Technologies used</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Java SE 1.8
+2. Selenium 4.10.0
+3. TestNG 7.7.1
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maven contains below versions dependencies in POM.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Java
+2.Selenium
+2.TestNG a unit testing framework
+3.Maven is a build automation tool that is based on POM (Page Object Model).
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Project Structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Page Layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Navigation inside project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src&gt;main/java/com/qa/wework&gt;pages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CreatePage.java
+2. DeletePage.java
+3. EditPage.java
+4. HomePage.java
+5. ProgrammableSearchEngine.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test Layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src&gt;test/java/com/qa/wework&gt;tests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CreatePageTest.java
+2. DeletePageTest.java
+3. EditPageTest.java
+4. HomePageTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. By Locators - Page locators
+2. Page constructor
+3. Public page actions/methods
+here we use the concept of  Encapsulation (OOPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>where private By locators are accessed by public methods.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All the application pages are available here it contains all the pages actions/methods </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. All the methods have TestNG annotations
+2. We can set priority
+3. All the methods have proper assertions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All the application tests are available here.
+All the test classes extends BaseTest 
+All the page methods are used here to verify actual output vs expected.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BaseTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src&gt;test/java/com/qa/wework&gt;base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. BaseTest.java
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All the pre-conditions and post-conditions for a test are available here i.e., 
+1. open the browser
+2. enter url
+3. Access the login page 
+4. quit browser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Utilities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src&gt;main/java/com/qa/wework&gt;utils</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. Page layer
+2. Test layer 
+3. BaseTest
+4. Utilities
+5. Driver Factory
+6. Constants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ElementUtil.java
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Used the below methods limited to scope of the Requirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. eleUtil.waitForTitleContains(String titleFraction, int timeOut)
+2. eleUtil.waitForURLContains(String urlFraction, int timeOut)
+3. eleUtil.waitForElementVisible(By locator , int timeOut)
+4. eleUtil.doClick(By locator)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List of classes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DriverFactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src&gt;main/java/com/qa/wework&gt;factory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. DriverFactory.java
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. All the page class object reference names
+2. @BeforeTest() and @AfterTest() TestNG annotations
+3. SetUp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>method for Initializaton of driver 
+4. tearDown() method for quitting/closing the browser</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains all the selenium methods which internally uses 
+1. driver.findByElement 
+2. driver.findByElements
+3. .click()
+4. .sendKeys() etc., 
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory Pattern is used to create different browser instances
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The DriverFactory class has a method initDriver that receives the browser name as String and Switch Case 
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppConstants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src&gt;main/java/com/qa/wework&gt;constants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. AppConstants.java
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Application constants are defined in this class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>All the constants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hard-coded ) in the application can be used with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>static final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>keyword and can be in other classes of different packages</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +1083,34 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -814,7 +1155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +1217,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B7FAAF-F79E-46EE-BB46-DBF4AF433273}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -1682,7 +2035,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2129,4 +2482,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E37B39-D94C-4568-A4CD-4CBA60A08D6E}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E22:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="84">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" customHeight="1">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="112.5" customHeight="1">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="135" customHeight="1">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="101.5" customHeight="1">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="46">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WeWorkAssignment.xlsx
+++ b/WeWorkAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47A4AE-13CC-48F7-B6E5-B45D943BB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6ED6D-0CD8-4174-80B9-2835AFBA2830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9DA2AF2B-6007-4E66-BBB4-56F65E6C9A89}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="185">
   <si>
     <t>S.No</t>
     <phoneticPr fontId="1"/>
@@ -736,34 +736,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>1. By Locators - Page locators
-2. Page constructor
-3. Public page actions/methods
-here we use the concept of  Encapsulation (OOPS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>where private By locators are accessed by public methods.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">All the application pages are available here it contains all the pages actions/methods </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,34 +838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>1. All the page class object reference names
-2. @BeforeTest() and @AfterTest() TestNG annotations
-3. SetUp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>method for Initializaton of driver 
-4. tearDown() method for quitting/closing the browser</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Contains all the selenium methods which internally uses 
 1. driver.findByElement 
 2. driver.findByElements
@@ -930,27 +874,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>GitHub url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/suneethaveeramreddy/WeWork-Assignment/tree/master/src/main/java/com/qa/wework/pages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suneethaveeramreddy/WeWork-Assignment at master (github.com)</t>
+  </si>
+  <si>
+    <t>WeWork-Assignment/src/test/java/com/qa/wework/tests at master · suneethaveeramreddy/WeWork-Assignment (github.com)</t>
+  </si>
+  <si>
+    <t>WeWork-Assignment/src/test/java/com/qa/wework/base/BaseTest.java at master · suneethaveeramreddy/WeWork-Assignment (github.com)</t>
+  </si>
+  <si>
+    <t>WeWork-Assignment/src/main/java/com/qa/wework/utils/ElementUtil.java at master · suneethaveeramreddy/WeWork-Assignment (github.com)</t>
+  </si>
+  <si>
+    <t>WeWork-Assignment/src/main/java/com/qa/wework/factory/DriverFactory.java at master · suneethaveeramreddy/WeWork-Assignment (github.com)</t>
+  </si>
+  <si>
+    <t>WeWork-Assignment/src/main/java/com/qa/wework/constants/AppConstants.java at master · suneethaveeramreddy/WeWork-Assignment (github.com)</t>
+  </si>
+  <si>
+    <t>1. By Locators - Page locators
+2. Page constructor
+3. Public page actions/methods
+here we use the concept of  Encapsulation (OOPS) where private By locators are accessed by public methods.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. All the page class object reference names
+2. @BeforeTest() and @AfterTest() TestNG annotations
+3. SetUp() method for Initializaton of driver 
+4. tearDown() method for quitting/closing the browser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>All the constants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> hard-coded ) in the application can be used with </t>
+      <t xml:space="preserve">All the constants( hard-coded ) in the application can be used with </t>
     </r>
     <r>
       <rPr>
@@ -981,12 +946,19 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TestNG Runner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeWork-Assignment/src/test/resources/testrunners/testng_regression.xml at master · suneethaveeramreddy/WeWork-Assignment (github.com)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,29 +1059,37 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="游ゴシック"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1150,12 +1130,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,17 +1205,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2486,36 +2473,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E37B39-D94C-4568-A4CD-4CBA60A08D6E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.4140625" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39" style="15" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28">
+    <row r="1" spans="1:6" ht="28">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="84">
+      <c r="E1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="84">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2526,32 +2519,41 @@
         <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" customHeight="1">
+      <c r="F4" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>143</v>
@@ -2560,32 +2562,41 @@
         <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="70">
-      <c r="A8">
+      <c r="F7" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="70">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>147</v>
@@ -2594,147 +2605,184 @@
         <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="112.5" customHeight="1">
+      <c r="F10" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="112.5" customHeight="1">
       <c r="A11" s="15">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="135" customHeight="1">
+      <c r="F13" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="135" customHeight="1">
       <c r="A14" s="15">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="101.5" customHeight="1">
+      <c r="F16" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="101.5" customHeight="1">
       <c r="A17" s="15">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="46">
+      <c r="F19" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="84">
       <c r="A20" s="15">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/tree/master" xr:uid="{A37FC511-B400-4FAA-9670-18D60A2D622E}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{A827E455-24E6-4EB4-A5A6-1BE941A8EB17}"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/tree/master/src/test/java/com/qa/wework/tests" xr:uid="{6ECD42BE-4714-457E-9351-1B850641E5C3}"/>
+    <hyperlink ref="F11" r:id="rId4" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/blob/master/src/test/java/com/qa/wework/base/BaseTest.java" xr:uid="{60A67CBB-E648-4838-80B3-1DF0244928C0}"/>
+    <hyperlink ref="F14" r:id="rId5" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/blob/master/src/main/java/com/qa/wework/utils/ElementUtil.java" xr:uid="{ECAFDD6B-DEBF-4C23-ABF3-4C807C23EFC2}"/>
+    <hyperlink ref="F17" r:id="rId6" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/blob/master/src/main/java/com/qa/wework/factory/DriverFactory.java" xr:uid="{1FE16557-89A7-43BD-A9CE-A4639F7ED73A}"/>
+    <hyperlink ref="F20" r:id="rId7" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/blob/master/src/main/java/com/qa/wework/constants/AppConstants.java" xr:uid="{BAFA6A9D-DAE2-4260-96F0-53D59DB8FC39}"/>
+    <hyperlink ref="E2" r:id="rId8" display="https://github.com/suneethaveeramreddy/WeWork-Assignment/blob/master/src/test/resources/testrunners/testng_regression.xml" xr:uid="{8EE2BF43-9686-4FF8-BCA6-2C446DBA176B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>